--- a/2015备课/进度.xlsx
+++ b/2015备课/进度.xlsx
@@ -264,7 +264,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ch7：函数及变量存储类型：库函数，自定义函数，参数传递，递归调用</t>
+    <t>ch7：函数及变量存储类型：库函数，自定义函数，递归调用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -782,8 +782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="43.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -977,7 +977,9 @@
       <c r="B14" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="C14" s="19"/>
+      <c r="C14" s="29">
+        <v>42327</v>
+      </c>
       <c r="D14" s="6">
         <v>12</v>
       </c>

--- a/2015备课/进度.xlsx
+++ b/2015备课/进度.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="68">
   <si>
     <t>课次</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -265,6 +265,18 @@
   </si>
   <si>
     <t>ch7：函数及变量存储类型：库函数，自定义函数，递归调用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch7：变量的存储类型，动态，静态变量,宏定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch8: 指针与数组，指针与函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch8：指针，基本概念,作函数参数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -783,7 +795,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="43.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -985,12 +997,12 @@
       </c>
       <c r="E14" s="27"/>
     </row>
-    <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="21">
         <v>19</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="C15" s="19"/>
     </row>
@@ -999,16 +1011,16 @@
         <v>20</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="C16" s="19"/>
     </row>
-    <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="21">
         <v>21</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="C17" s="19" t="s">
         <v>43</v>

--- a/2015备课/进度.xlsx
+++ b/2015备课/进度.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="70">
   <si>
     <t>课次</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -272,11 +272,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ch8: 指针与数组，指针与函数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ch8：指针，基本概念,作函数参数</t>
+    <t>复习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch8：指针，基本概念,作函数参数(值传递、地址传递)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch8: 指针赋值运算，算术运算，指针与一维数组，数组名作函数参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch8：指针与二维数组，指针与二维数组</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -315,7 +323,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -382,6 +390,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -389,7 +408,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -489,6 +508,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -794,8 +816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="43.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1006,7 +1028,7 @@
       </c>
       <c r="C15" s="19"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A16" s="21">
         <v>20</v>
       </c>
@@ -1015,23 +1037,21 @@
       </c>
       <c r="C16" s="19"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A17" s="21">
         <v>21</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>43</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="C17" s="19"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="21">
         <v>22</v>
       </c>
-      <c r="B18" s="24" t="s">
-        <v>44</v>
+      <c r="B18" s="36" t="s">
+        <v>69</v>
       </c>
       <c r="C18" s="19"/>
     </row>
@@ -1039,18 +1059,18 @@
       <c r="A19" s="21">
         <v>23</v>
       </c>
-      <c r="B19" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>46</v>
-      </c>
+      <c r="B19" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="19"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="30">
         <v>24</v>
       </c>
-      <c r="B20" s="31"/>
+      <c r="B20" s="31" t="s">
+        <v>66</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/2015备课/进度.xlsx
+++ b/2015备课/进度.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="71">
   <si>
     <t>课次</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -284,7 +284,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ch8：指针与二维数组，指针与二维数组</t>
+    <t>ch8：指针与二维数组，ch9: 结构体定义，引用，初始化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch9：结构体与公用体，结构体数组，结构体与函数，共用体，类型定义</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -497,6 +501,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -508,9 +515,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -817,7 +821,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="43.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -828,15 +832,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="32"/>
+      <c r="B1" s="33"/>
       <c r="C1" s="19"/>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="34"/>
+      <c r="E1" s="35"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
@@ -888,7 +892,7 @@
       <c r="B5" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="34" t="s">
         <v>30</v>
       </c>
       <c r="D5" s="6">
@@ -905,7 +909,7 @@
       <c r="B6" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="33"/>
+      <c r="C6" s="34"/>
       <c r="D6" s="6">
         <v>4</v>
       </c>
@@ -918,7 +922,7 @@
       <c r="B7" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="33"/>
+      <c r="C7" s="34"/>
       <c r="D7" s="6">
         <v>5</v>
       </c>
@@ -1046,21 +1050,21 @@
       </c>
       <c r="C17" s="19"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A18" s="21">
         <v>22</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="32" t="s">
         <v>69</v>
       </c>
       <c r="C18" s="19"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A19" s="21">
         <v>23</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="C19" s="19"/>
     </row>
@@ -1102,14 +1106,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="D1" s="34" t="s">
+      <c r="B1" s="36"/>
+      <c r="D1" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="34"/>
+      <c r="E1" s="35"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1238,11 +1242,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
       <c r="D1" s="7"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1373,7 +1377,7 @@
       <c r="C12" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="33" t="s">
+      <c r="D12" s="34" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1385,7 +1389,7 @@
       <c r="C13" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="33"/>
+      <c r="D13" s="34"/>
     </row>
     <row r="14" spans="1:4" ht="72" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
@@ -1395,7 +1399,7 @@
       <c r="C14" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="33"/>
+      <c r="D14" s="34"/>
     </row>
     <row r="15" spans="1:4" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
